--- a/ExcelReadCTests/DataTests/001 - 1301 - 1222333 - LastName - test_01.xlsx
+++ b/ExcelReadCTests/DataTests/001 - 1301 - 1222333 - LastName - test_01.xlsx
@@ -762,7 +762,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelReadCTests/DataTests/001 - 1301 - 1222333 - LastName - test_01.xlsx
+++ b/ExcelReadCTests/DataTests/001 - 1301 - 1222333 - LastName - test_01.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\Work\MS Visual Studio\1_MyApplication\ExcelReadC\ExcelReadC (Git)\ExcelReadCTests\DataTests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20730" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>kmat</t>
   </si>
@@ -109,13 +104,16 @@
   </si>
   <si>
     <t>1100 -277</t>
+  </si>
+  <si>
+    <t>001-000004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +133,10 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -197,6 +199,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -323,7 +328,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -370,7 +375,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -446,8 +451,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:K11" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:K11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:K12" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:K12"/>
   <sortState ref="A2:I1028">
     <sortCondition sortBy="cellColor" ref="C1:C1028" dxfId="22"/>
   </sortState>
@@ -513,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,10 +550,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,7 +584,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -756,16 +759,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E11"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
@@ -776,7 +779,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -811,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -847,7 +850,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -883,7 +886,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -919,7 +922,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -955,7 +958,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -991,7 +994,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1161,14 +1164,48 @@
         <v>796</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J11" s="12">
         <v>4</v>
       </c>
       <c r="K11" s="13">
         <f>IF( OR(sheet!$I11="", sheet!$J11 = ""),"", sheet!$I11*sheet!$J11)</f>
-        <v>0</v>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1000004</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1000004</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="10">
+        <v>796</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="J12" s="12">
+        <v>4</v>
+      </c>
+      <c r="K12" s="13">
+        <f>IF( OR(sheet!$I12="", sheet!$J12 = ""),"", sheet!$I12*sheet!$J12)</f>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -1178,13 +1215,13 @@
   <conditionalFormatting sqref="E4">
     <cfRule type="duplicateValues" dxfId="28" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E11 E2:E3">
+  <conditionalFormatting sqref="E2:E3 E5:E12">
     <cfRule type="duplicateValues" dxfId="27" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1048576">
     <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E1 C5:D1048576 C2:D3">
+  <conditionalFormatting sqref="C1:E1 C2:D3 C5:D1048576">
     <cfRule type="duplicateValues" dxfId="25" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">

--- a/ExcelReadCTests/DataTests/001 - 1301 - 1222333 - LastName - test_01.xlsx
+++ b/ExcelReadCTests/DataTests/001 - 1301 - 1222333 - LastName - test_01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20730" windowHeight="11055"/>
+    <workbookView xWindow="1755" yWindow="-255" windowWidth="21270" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>kmat</t>
   </si>
@@ -107,6 +107,51 @@
   </si>
   <si>
     <t>001-000004</t>
+  </si>
+  <si>
+    <t>080030480</t>
+  </si>
+  <si>
+    <t>23008</t>
+  </si>
+  <si>
+    <t>180030480</t>
+  </si>
+  <si>
+    <t>280030480</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>920130111100109</t>
+  </si>
+  <si>
+    <t>9201301</t>
+  </si>
+  <si>
+    <t>111112345678900</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>12223</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>12255</t>
+  </si>
+  <si>
+    <t>11112345678900</t>
+  </si>
+  <si>
+    <t>1112345678900</t>
+  </si>
+  <si>
+    <t>112345678900</t>
   </si>
 </sst>
 </file>
@@ -165,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -202,115 +247,123 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -328,7 +381,29 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -340,6 +415,68 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -352,7 +489,94 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -367,6 +591,66 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -376,66 +660,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,24 +675,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:K12" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:K12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="44">
+  <autoFilter ref="A1:M20">
+    <filterColumn colId="3"/>
+    <filterColumn colId="6"/>
+  </autoFilter>
   <sortState ref="A2:I1028">
-    <sortCondition sortBy="cellColor" ref="C1:C1028" dxfId="22"/>
+    <sortCondition sortBy="cellColor" ref="C1:C1028" dxfId="43"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="9" name="ceh" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="8" name="n_kdk" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="1" name="kmat" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="11" name="valid_kmat" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="10" name="kmat_double" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" name="naim" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="3" name="size_type" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="ei" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="price" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="count" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="sum" dataDxfId="1" totalsRowDxfId="0">
-      <calculatedColumnFormula>IF( OR(sheet!$I2="", sheet!$J2 = ""),"", sheet!$I2*sheet!$J2)</calculatedColumnFormula>
+  <tableColumns count="13">
+    <tableColumn id="9" name="ceh" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="8" name="n_kdk" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="1" name="kmat" dataDxfId="12" totalsRowDxfId="38"/>
+    <tableColumn id="13" name="Столбец2" dataDxfId="10" totalsRowDxfId="13">
+      <calculatedColumnFormula>LEN(table1[[#This Row],[kmat]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="valid_kmat" dataDxfId="11" totalsRowDxfId="37"/>
+    <tableColumn id="10" name="kmat_double" dataDxfId="20" totalsRowDxfId="36"/>
+    <tableColumn id="12" name="Столбец1" dataDxfId="18" totalsRowDxfId="21"/>
+    <tableColumn id="2" name="naim" dataDxfId="19" totalsRowDxfId="35"/>
+    <tableColumn id="3" name="size_type" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" name="ei" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" name="price" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="6" name="count" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="sum" dataDxfId="26" totalsRowDxfId="25">
+      <calculatedColumnFormula>IF( OR(sheet!$K2="", sheet!$L2 = ""),"", sheet!$K2*sheet!$L2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -761,25 +992,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="19" customWidth="1"/>
     <col min="5" max="5" width="29.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -789,32 +1022,38 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -824,33 +1063,40 @@
       <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>8</v>
+      </c>
+      <c r="E2" s="8">
         <v>1100109</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>11100109</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10">
+      <c r="J2" s="10">
         <v>796</v>
       </c>
-      <c r="I2" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="K2" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L2" s="12">
         <v>2</v>
       </c>
-      <c r="K2" s="13">
-        <f>IF( OR(sheet!$I2="", sheet!$J2 = ""),"", sheet!$I2*sheet!$J2)</f>
+      <c r="M2" s="13">
+        <f>IF( OR(sheet!$K2="", sheet!$L2 = ""),"", sheet!$K2*sheet!$L2)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -860,33 +1106,40 @@
       <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="8">
         <v>1100109</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>21100109</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="10">
+      <c r="J3" s="10">
         <v>796</v>
       </c>
-      <c r="I3" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="K3" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="12">
         <v>2</v>
       </c>
-      <c r="K3" s="13">
-        <f>IF( OR(sheet!$I3="", sheet!$J3 = ""),"", sheet!$I3*sheet!$J3)</f>
+      <c r="M3" s="13">
+        <f>IF( OR(sheet!$K3="", sheet!$L3 = ""),"", sheet!$K3*sheet!$L3)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -896,33 +1149,38 @@
       <c r="C4" s="8">
         <v>1100.1089999999999</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>8</v>
+      </c>
+      <c r="E4" s="8">
         <v>1100109</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>31100109</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10">
+      <c r="J4" s="10">
         <v>796</v>
       </c>
-      <c r="I4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="K4" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="12">
         <v>2</v>
       </c>
-      <c r="K4" s="13">
-        <f>IF( OR(sheet!$I4="", sheet!$J4 = ""),"", sheet!$I4*sheet!$J4)</f>
+      <c r="M4" s="13">
+        <f>IF( OR(sheet!$K4="", sheet!$L4 = ""),"", sheet!$K4*sheet!$L4)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75">
+    <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -932,33 +1190,38 @@
       <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
         <v>1100184</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>11100184</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10">
+      <c r="J5" s="10">
         <v>796</v>
       </c>
-      <c r="I5" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="K5" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="12">
         <v>6</v>
       </c>
-      <c r="K5" s="13">
-        <f>IF( OR(sheet!$I5="", sheet!$J5 = ""),"", sheet!$I5*sheet!$J5)</f>
+      <c r="M5" s="13">
+        <f>IF( OR(sheet!$K5="", sheet!$L5 = ""),"", sheet!$K5*sheet!$L5)</f>
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -968,33 +1231,38 @@
       <c r="C6" s="8">
         <v>-1100184</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
         <v>1100184</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>21100184</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10">
+      <c r="J6" s="10">
         <v>796</v>
       </c>
-      <c r="I6" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="K6" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="12">
         <v>1</v>
       </c>
-      <c r="K6" s="13">
-        <f>IF( OR(sheet!$I6="", sheet!$J6 = ""),"", sheet!$I6*sheet!$J6)</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
+      <c r="M6" s="13">
+        <f>IF( OR(sheet!$K6="", sheet!$L6 = ""),"", sheet!$K6*sheet!$L6)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1004,33 +1272,38 @@
       <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>9</v>
+      </c>
+      <c r="E7" s="8">
         <v>1100277</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>11100277</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="10">
+      <c r="J7" s="10">
         <v>796</v>
       </c>
-      <c r="I7" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="K7" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="12">
         <v>5</v>
       </c>
-      <c r="K7" s="13">
-        <f>IF( OR(sheet!$I7="", sheet!$J7 = ""),"", sheet!$I7*sheet!$J7)</f>
+      <c r="M7" s="13">
+        <f>IF( OR(sheet!$K7="", sheet!$L7 = ""),"", sheet!$K7*sheet!$L7)</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -1040,33 +1313,38 @@
       <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>9</v>
+      </c>
+      <c r="E8" s="8">
         <v>1100277</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>21100277</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10">
+      <c r="J8" s="10">
         <v>796</v>
       </c>
-      <c r="I8" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="K8" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="12">
         <v>2</v>
       </c>
-      <c r="K8" s="13">
-        <f>IF( OR(sheet!$I8="", sheet!$J8 = ""),"", sheet!$I8*sheet!$J8)</f>
+      <c r="M8" s="13">
+        <f>IF( OR(sheet!$K8="", sheet!$L8 = ""),"", sheet!$K8*sheet!$L8)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1076,33 +1354,38 @@
       <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8">
-        <v>1100337</v>
+      <c r="D9" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>8</v>
       </c>
       <c r="E9" s="8">
         <v>1100337</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8">
+        <v>1100337</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="10">
+      <c r="J9" s="10">
         <v>796</v>
       </c>
-      <c r="I9" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="K9" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="12">
         <v>4</v>
       </c>
-      <c r="K9" s="13">
-        <f>IF( OR(sheet!$I9="", sheet!$J9 = ""),"", sheet!$I9*sheet!$J9)</f>
+      <c r="M9" s="13">
+        <f>IF( OR(sheet!$K9="", sheet!$L9 = ""),"", sheet!$K9*sheet!$L9)</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1112,33 +1395,38 @@
       <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8">
-        <v>1100418</v>
+      <c r="D10" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>8</v>
       </c>
       <c r="E10" s="8">
         <v>1100418</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8">
+        <v>1100418</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="10">
+      <c r="J10" s="10">
         <v>796</v>
       </c>
-      <c r="I10" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="K10" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L10" s="12">
         <v>70</v>
       </c>
-      <c r="K10" s="13">
-        <f>IF( OR(sheet!$I10="", sheet!$J10 = ""),"", sheet!$I10*sheet!$J10)</f>
+      <c r="M10" s="13">
+        <f>IF( OR(sheet!$K10="", sheet!$L10 = ""),"", sheet!$K10*sheet!$L10)</f>
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1148,33 +1436,38 @@
       <c r="C11" s="8">
         <v>11.006030000000001</v>
       </c>
-      <c r="D11" s="8">
-        <v>1100603</v>
+      <c r="D11" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>8</v>
       </c>
       <c r="E11" s="8">
         <v>1100603</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8">
+        <v>1100603</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="10">
+      <c r="J11" s="10">
         <v>796</v>
       </c>
-      <c r="I11" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="K11" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="12">
         <v>4</v>
       </c>
-      <c r="K11" s="13">
-        <f>IF( OR(sheet!$I11="", sheet!$J11 = ""),"", sheet!$I11*sheet!$J11)</f>
+      <c r="M11" s="13">
+        <f>IF( OR(sheet!$K11="", sheet!$L11 = ""),"", sheet!$K11*sheet!$L11)</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1184,48 +1477,363 @@
       <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="15">
         <v>1000004</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>1000004</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="10">
+      <c r="I12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="10">
         <v>796</v>
       </c>
-      <c r="I12" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="K12" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L12" s="12">
         <v>4</v>
       </c>
-      <c r="K12" s="13">
-        <f>IF( OR(sheet!$I12="", sheet!$J12 = ""),"", sheet!$I12*sheet!$J12)</f>
+      <c r="M12" s="13">
+        <f>IF( OR(sheet!$K12="", sheet!$L12 = ""),"", sheet!$K12*sheet!$L12)</f>
         <v>0.04</v>
       </c>
     </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>9</v>
+      </c>
+      <c r="E13" s="15">
+        <v>80030480</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="10">
+        <v>796</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="12">
+        <v>4</v>
+      </c>
+      <c r="M13" s="13">
+        <f>IF( OR(sheet!$K13="", sheet!$L13 = ""),"", sheet!$K13*sheet!$L13)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>9</v>
+      </c>
+      <c r="E14" s="15">
+        <v>80030480</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="10">
+        <v>796</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L14" s="12">
+        <v>4</v>
+      </c>
+      <c r="M14" s="13">
+        <f>IF( OR(sheet!$K14="", sheet!$L14 = ""),"", sheet!$K14*sheet!$L14)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="18">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>15</v>
+      </c>
+      <c r="E15" s="15">
+        <v>80030480</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="10">
+        <v>796</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="12">
+        <v>4</v>
+      </c>
+      <c r="M15" s="13">
+        <f>IF( OR(sheet!$K15="", sheet!$L15 = ""),"", sheet!$K15*sheet!$L15)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="20">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>14</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="10">
+        <v>796</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="12">
+        <v>4</v>
+      </c>
+      <c r="M16" s="13">
+        <f>IF( OR(sheet!$K16="", sheet!$L16 = ""),"", sheet!$K16*sheet!$L16)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="20">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>13</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="10">
+        <v>796</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="12">
+        <v>4</v>
+      </c>
+      <c r="M17" s="13">
+        <f>IF( OR(sheet!$K17="", sheet!$L17 = ""),"", sheet!$K17*sheet!$L17)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="20">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>13</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="10">
+        <v>796</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="12">
+        <v>4</v>
+      </c>
+      <c r="M18" s="13">
+        <f>IF( OR(sheet!$K18="", sheet!$L18 = ""),"", sheet!$K18*sheet!$L18)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="20">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>12</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="10">
+        <v>796</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L19" s="12">
+        <v>4</v>
+      </c>
+      <c r="M19" s="13">
+        <f>IF( OR(sheet!$K19="", sheet!$L19 = ""),"", sheet!$K19*sheet!$L19)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75">
+      <c r="A20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="20">
+        <f>LEN(table1[[#This Row],[kmat]])</f>
+        <v>12</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="10">
+        <v>796</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L20" s="12">
+        <v>4</v>
+      </c>
+      <c r="M20" s="13">
+        <f>IF( OR(sheet!$K20="", sheet!$L20 = ""),"", sheet!$K20*sheet!$L20)</f>
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:D4">
-    <cfRule type="duplicateValues" dxfId="29" priority="5" stopIfTrue="1"/>
+  <conditionalFormatting sqref="F4:G4">
+    <cfRule type="duplicateValues" dxfId="5" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="28" priority="3" stopIfTrue="1"/>
+  <conditionalFormatting sqref="D21:D1048576 E1:E20">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3 E5:E12">
-    <cfRule type="duplicateValues" dxfId="27" priority="4" stopIfTrue="1"/>
+  <conditionalFormatting sqref="C4:E4">
+    <cfRule type="duplicateValues" dxfId="3" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+  <conditionalFormatting sqref="F2:G3 F5:G20">
+    <cfRule type="duplicateValues" dxfId="2" priority="33" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E1 C2:D3 C5:D1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="13" stopIfTrue="1"/>
+  <conditionalFormatting sqref="E1:E20 C1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+  <conditionalFormatting sqref="C1:G1 C2:E3 E5:E20 C5:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="39" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>

--- a/ExcelReadCTests/DataTests/001 - 1301 - 1222333 - LastName - test_01.xlsx
+++ b/ExcelReadCTests/DataTests/001 - 1301 - 1222333 - LastName - test_01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>kmat</t>
   </si>
@@ -152,6 +152,24 @@
   </si>
   <si>
     <t>112345678900</t>
+  </si>
+  <si>
+    <t>2345678900</t>
+  </si>
+  <si>
+    <t>52345678900</t>
+  </si>
+  <si>
+    <t>42345678900</t>
+  </si>
+  <si>
+    <t>32345678900</t>
+  </si>
+  <si>
+    <t>12345678900</t>
+  </si>
+  <si>
+    <t>22345678900</t>
   </si>
 </sst>
 </file>
@@ -210,11 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,9 +261,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -264,7 +278,47 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -381,8 +435,11 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -400,10 +457,68 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -415,44 +530,28 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -475,9 +574,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -489,96 +591,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -589,6 +601,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -601,12 +622,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -619,36 +634,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <fill>
@@ -660,6 +645,66 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -675,30 +720,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="A1:M20">
     <filterColumn colId="3"/>
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="A2:I1028">
-    <sortCondition sortBy="cellColor" ref="C1:C1028" dxfId="43"/>
+    <sortCondition sortBy="cellColor" ref="C1:C1028" dxfId="40"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="9" name="ceh" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="8" name="n_kdk" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="1" name="kmat" dataDxfId="12" totalsRowDxfId="38"/>
-    <tableColumn id="13" name="Столбец2" dataDxfId="10" totalsRowDxfId="13">
+    <tableColumn id="9" name="ceh" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="8" name="n_kdk" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="1" name="kmat" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="13" name="Столбец2" dataDxfId="16" totalsRowDxfId="33">
       <calculatedColumnFormula>LEN(table1[[#This Row],[kmat]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="valid_kmat" dataDxfId="11" totalsRowDxfId="37"/>
-    <tableColumn id="10" name="kmat_double" dataDxfId="20" totalsRowDxfId="36"/>
-    <tableColumn id="12" name="Столбец1" dataDxfId="18" totalsRowDxfId="21"/>
-    <tableColumn id="2" name="naim" dataDxfId="19" totalsRowDxfId="35"/>
-    <tableColumn id="3" name="size_type" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="4" name="ei" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" name="price" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="6" name="count" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="11" name="valid_kmat" dataDxfId="14" totalsRowDxfId="32"/>
+    <tableColumn id="10" name="kmat_double" dataDxfId="15" totalsRowDxfId="31"/>
+    <tableColumn id="12" name="Столбец1" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" name="naim" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="3" name="size_type" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="4" name="ei" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="5" name="price" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="6" name="count" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="7" name="sum" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>IF( OR(sheet!$K2="", sheet!$L2 = ""),"", sheet!$K2*sheet!$L2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -994,9 +1039,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1004,836 +1049,873 @@
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="29.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>8</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="13">
         <v>1100109</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>11100109</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>796</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>0.01</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <v>2</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <f>IF( OR(sheet!$K2="", sheet!$L2 = ""),"", sheet!$K2*sheet!$L2)</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>8</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="13">
         <v>1100109</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>21100109</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>796</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>0.01</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>2</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <f>IF( OR(sheet!$K3="", sheet!$L3 = ""),"", sheet!$K3*sheet!$L3)</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1100.1089999999999</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>8</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="13">
         <v>1100109</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>31100109</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>796</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>0.01</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <f>IF( OR(sheet!$K4="", sheet!$L4 = ""),"", sheet!$K4*sheet!$L4)</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>8</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="13">
         <v>1100184</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>11100184</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>796</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>0.01</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>6</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <f>IF( OR(sheet!$K5="", sheet!$L5 = ""),"", sheet!$K5*sheet!$L5)</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>-1100184</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>8</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="13">
         <v>1100184</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>21100184</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>796</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>0.01</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>1</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <f>IF( OR(sheet!$K6="", sheet!$L6 = ""),"", sheet!$K6*sheet!$L6)</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>9</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="13">
         <v>1100277</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>11100277</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>796</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>0.01</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>5</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <f>IF( OR(sheet!$K7="", sheet!$L7 = ""),"", sheet!$K7*sheet!$L7)</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>9</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="13">
         <v>1100277</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>21100277</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>796</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>0.01</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>2</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <f>IF( OR(sheet!$K8="", sheet!$L8 = ""),"", sheet!$K8*sheet!$L8)</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="13">
         <v>1100337</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>1100337</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>796</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>0.01</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>4</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <f>IF( OR(sheet!$K9="", sheet!$L9 = ""),"", sheet!$K9*sheet!$L9)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>8</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="13">
         <v>1100418</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>1100418</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>796</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>0.01</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>70</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <f>IF( OR(sheet!$K10="", sheet!$L10 = ""),"", sheet!$K10*sheet!$L10)</f>
         <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>11.006030000000001</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>8</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="13">
         <v>1100603</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>1100603</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>796</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>0.01</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>4</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <f>IF( OR(sheet!$K11="", sheet!$L11 = ""),"", sheet!$K11*sheet!$L11)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>10</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>1000004</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>1000004</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>796</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>0.01</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>4</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <f>IF( OR(sheet!$K12="", sheet!$L12 = ""),"", sheet!$K12*sheet!$L12)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>9</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>80030480</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>796</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>0.01</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>4</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <f>IF( OR(sheet!$K13="", sheet!$L13 = ""),"", sheet!$K13*sheet!$L13)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>9</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>80030480</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>796</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>0.01</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <v>4</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <f>IF( OR(sheet!$K14="", sheet!$L14 = ""),"", sheet!$K14*sheet!$L14)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>15</v>
       </c>
-      <c r="E15" s="15">
-        <v>80030480</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="9" t="s">
+      <c r="E15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>796</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>0.01</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>4</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <f>IF( OR(sheet!$K15="", sheet!$L15 = ""),"", sheet!$K15*sheet!$L15)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>14</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="9" t="s">
+      <c r="E16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>796</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>0.01</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>4</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <f>IF( OR(sheet!$K16="", sheet!$L16 = ""),"", sheet!$K16*sheet!$L16)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>13</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="9" t="s">
+      <c r="E17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>796</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>0.01</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>4</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <f>IF( OR(sheet!$K17="", sheet!$L17 = ""),"", sheet!$K17*sheet!$L17)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="18">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>13</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="9" t="s">
+      <c r="E18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>796</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>0.01</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>4</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <f>IF( OR(sheet!$K18="", sheet!$L18 = ""),"", sheet!$K18*sheet!$L18)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="18">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>12</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="9" t="s">
+      <c r="E19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>796</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>0.01</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <v>4</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <f>IF( OR(sheet!$K19="", sheet!$L19 = ""),"", sheet!$K19*sheet!$L19)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="18">
         <f>LEN(table1[[#This Row],[kmat]])</f>
         <v>12</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="9" t="s">
+      <c r="E20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>796</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>0.01</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <v>4</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <f>IF( OR(sheet!$K20="", sheet!$L20 = ""),"", sheet!$K20*sheet!$L20)</f>
         <v>0.04</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F4:G4">
-    <cfRule type="duplicateValues" dxfId="5" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D1048576 E1:E20">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E4">
-    <cfRule type="duplicateValues" dxfId="3" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G3 F5:G20">
-    <cfRule type="duplicateValues" dxfId="2" priority="33" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="39" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E20 C1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
+  <conditionalFormatting sqref="C1:D1048576 E1:E20">
+    <cfRule type="duplicateValues" dxfId="43" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1 C2:E3 E5:E20 C5:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="39" stopIfTrue="1"/>
+  <conditionalFormatting sqref="C1:G1 C2:E3 C5:D1048576 E5:E20">
+    <cfRule type="duplicateValues" dxfId="42" priority="45" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="duplicateValues" dxfId="7" priority="4" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F20">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F20">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F20">
+    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
